--- a/docs/StructureDefinition-SpaceInsuranceContract.xlsx
+++ b/docs/StructureDefinition-SpaceInsuranceContract.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T20:45:50-06:00</t>
+    <t>2025-05-21T00:44:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Specialized contract coverage for space travel</t>
+    <t>STUB - Specialized contract coverage for space travel</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-SpaceInsuranceContract.xlsx
+++ b/docs/StructureDefinition-SpaceInsuranceContract.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T00:44:32-05:00</t>
+    <t>2025-06-01T17:14:01-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceInsuranceContract.xlsx
+++ b/docs/StructureDefinition-SpaceInsuranceContract.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T17:14:01-05:00</t>
+    <t>2025-06-01T22:56:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceInsuranceContract.xlsx
+++ b/docs/StructureDefinition-SpaceInsuranceContract.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T22:56:50-05:00</t>
+    <t>2025-06-01T23:37:11-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceInsuranceContract.xlsx
+++ b/docs/StructureDefinition-SpaceInsuranceContract.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T23:37:11-05:00</t>
+    <t>2025-12-25T11:43:35-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -355,7 +355,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -568,13 +568,13 @@
     <t>Detailed codes for the legal state of a contract.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contract-legalstate</t>
+    <t>http://hl7.org/fhir/ValueSet/contract-legalstate|4.0.1</t>
   </si>
   <si>
     <t>Contract.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Contract)
+    <t xml:space="preserve">Reference(Contract|4.0.1)
 </t>
   </si>
   <si>
@@ -614,7 +614,7 @@
     <t>This is an example set of Content Derivative type codes, which represent the minimal content derived from the basal information source.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contract-content-derivative</t>
+    <t>http://hl7.org/fhir/ValueSet/contract-content-derivative|4.0.1</t>
   </si>
   <si>
     <t>Maps partially to several v3 codes: ActClass: REG (registration) Description: Represents the act of maintaining information about the registration of its associated registered subject. The subject can be either an Act or a Role, and includes subjects such as lab exam definitions, drug protocol definitions, prescriptions, persons, patients, practitioners, and equipment.@@ -681,7 +681,7 @@
     <t>Codes for the Cessation of Contracts.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contract-expiration-type</t>
+    <t>http://hl7.org/fhir/ValueSet/contract-expiration-type|4.0.1</t>
   </si>
   <si>
     <t>Contract.subject</t>
@@ -691,7 +691,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -717,7 +717,7 @@
     <t>Contract.authority</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -740,7 +740,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -813,7 +813,7 @@
     <t>Contract.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -835,14 +835,14 @@
     <t>Codes for the range of legal concerns.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contract-scope</t>
+    <t>http://hl7.org/fhir/ValueSet/contract-scope|4.0.1</t>
   </si>
   <si>
     <t>Contract.topic[x]</t>
   </si>
   <si>
     <t>CodeableConcept
-Reference(Resource)</t>
+Reference(Resource|4.0.1)</t>
   </si>
   <si>
     <t>Focus of contract interest</t>
@@ -868,7 +868,7 @@
     <t>List of overall contract codes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contract-type</t>
+    <t>http://hl7.org/fhir/ValueSet/contract-type|4.0.1</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -889,7 +889,7 @@
     <t>Detailed codes within the above.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contract-subtype</t>
+    <t>http://hl7.org/fhir/ValueSet/contract-subtype|4.0.1</t>
   </si>
   <si>
     <t>Examples of Contract or Policy subtypes in ActCodes:_ActCoverageTypeCode Definition: Set of codes indicating the type of insurance policy or program that pays for the cost of benefits provided to covered parties. Generalizes:  _ActInsurancePolicyCode;  _ActInsuranceTypeCode; ActProgramTypeCode.  _ActPolicyType  Description:Types of policies that further specify the ActClassPolicy value set. Generalizes: _ActPrivacyPolicy; _ActPrivacyLaw; _InformationSensitivityPolicy; ActTrustPolicyType;  SecurityPolicy.  _ActInvoiceAdjudicationPaymentGroupCode  Description: Codes representing adjustments to a Payment Advice such as retroactive, clawback, garnishee, etc., e.g. RECOV (recovery) Description: Retroactive adjustment such as fee rate adjustment due to contract negotiations.</t>
@@ -961,7 +961,7 @@
     <t>Detailed codes for the definition of contracts.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contract-definition-type</t>
+    <t>http://hl7.org/fhir/ValueSet/contract-definition-type|4.0.1</t>
   </si>
   <si>
     <t>Contract.contentDefinition.subType</t>
@@ -976,13 +976,13 @@
     <t>Detailed codes for the additional definition of contracts.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contract-definition-subtype</t>
+    <t>http://hl7.org/fhir/ValueSet/contract-definition-subtype|4.0.1</t>
   </si>
   <si>
     <t>Contract.contentDefinition.publisher</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1110,7 +1110,7 @@
     <t>Detailed codes for the types of contract provisions.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contract-term-type</t>
+    <t>http://hl7.org/fhir/ValueSet/contract-term-type|4.0.1</t>
   </si>
   <si>
     <t>See Contract.term mapping.</t>
@@ -1128,7 +1128,7 @@
     <t>Detailed codes for the subtypes of contract provisions.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contract-term-subtype</t>
+    <t>http://hl7.org/fhir/ValueSet/contract-term-subtype|4.0.1</t>
   </si>
   <si>
     <t>See Contract.topic mapping.</t>
@@ -1195,7 +1195,7 @@
     <t>Codes for confidentiality protection.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contract-security-classification</t>
+    <t>http://hl7.org/fhir/ValueSet/contract-security-classification|4.0.1</t>
   </si>
   <si>
     <t>Contract.term.securityLabel.category</t>
@@ -1210,7 +1210,7 @@
     <t>Codes for policy category.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contract-security-category</t>
+    <t>http://hl7.org/fhir/ValueSet/contract-security-category|4.0.1</t>
   </si>
   <si>
     <t>Contract.term.securityLabel.control</t>
@@ -1225,7 +1225,7 @@
     <t>Codes for handling instructions.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contract-security-control</t>
+    <t>http://hl7.org/fhir/ValueSet/contract-security-control|4.0.1</t>
   </si>
   <si>
     <t>Contract.term.offer</t>
@@ -1276,7 +1276,7 @@
     <t>Contract.term.offer.party.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole|Device|Group|Organization)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|Device|4.0.1|Group|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1298,7 +1298,7 @@
     <t>Codes for offer participant roles.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contract-party-role</t>
+    <t>http://hl7.org/fhir/ValueSet/contract-party-role|4.0.1</t>
   </si>
   <si>
     <t>Contract.term.offer.topic</t>
@@ -1375,7 +1375,7 @@
     <t>Codes for conveying a decision.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contract-decision-mode</t>
+    <t>http://hl7.org/fhir/ValueSet/contract-decision-mode|4.0.1</t>
   </si>
   <si>
     <t>Contract.term.offer.answer</t>
@@ -1400,7 +1400,7 @@
   </si>
   <si>
     <t>boolean
-decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(Resource)</t>
+decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(Resource|4.0.1)</t>
   </si>
   <si>
     <t>The actual answer response</t>
@@ -1475,7 +1475,7 @@
     <t>Codes for scoping an asset.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contract-assetscope</t>
+    <t>http://hl7.org/fhir/ValueSet/contract-assetscope|4.0.1</t>
   </si>
   <si>
     <t>Contract.term.asset.type</t>
@@ -1490,7 +1490,7 @@
     <t>Condes for the type of an asset.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contract-assettype</t>
+    <t>http://hl7.org/fhir/ValueSet/contract-assettype|4.0.1</t>
   </si>
   <si>
     <t>Contract.term.asset.typeReference</t>
@@ -1514,7 +1514,7 @@
     <t>Condes for the sub-type of an asset.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contract-assetsubtype</t>
+    <t>http://hl7.org/fhir/ValueSet/contract-assetsubtype|4.0.1</t>
   </si>
   <si>
     <t>Contract.term.asset.relationship</t>
@@ -1529,7 +1529,7 @@
     <t>The class (type) of information a consent rule covers.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/consent-content-class</t>
+    <t>http://hl7.org/fhir/ValueSet/consent-content-class|4.0.1</t>
   </si>
   <si>
     <t>FinancialContract.code</t>
@@ -1574,7 +1574,7 @@
     <t>Codes for the context of the asset.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contract-assetcontext</t>
+    <t>http://hl7.org/fhir/ValueSet/contract-assetcontext|4.0.1</t>
   </si>
   <si>
     <t>Contract.term.asset.context.text</t>
@@ -1607,7 +1607,7 @@
     <t>Codes for asset availability.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/asset-availability</t>
+    <t>http://hl7.org/fhir/ValueSet/asset-availability|4.0.1</t>
   </si>
   <si>
     <t>Contract.term.asset.period</t>
@@ -1730,7 +1730,7 @@
     <t>Contract.term.asset.valuedItem.quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1820,7 +1820,7 @@
     <t>Contract.term.asset.valuedItem.responsible</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Patient|Practitioner|PractitionerRole|RelatedPerson)
+    <t xml:space="preserve">Reference(Organization|4.0.1|Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1910,7 +1910,7 @@
     <t>Detailed codes for the contract action.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contract-action</t>
+    <t>http://hl7.org/fhir/ValueSet/contract-action|4.0.1</t>
   </si>
   <si>
     <t>Request.performer</t>
@@ -1955,7 +1955,7 @@
     <t>Detailed codes for the contract actor role.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contract-actorrole</t>
+    <t>http://hl7.org/fhir/ValueSet/contract-actorrole|4.0.1</t>
   </si>
   <si>
     <t>RoleClass, RoleCode, ParticipationType, ParticipationFunction codes</t>
@@ -2011,13 +2011,13 @@
     <t>Codes for the status of an term action.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contract-actionstatus</t>
+    <t>http://hl7.org/fhir/ValueSet/contract-actionstatus|4.0.1</t>
   </si>
   <si>
     <t>Contract.term.action.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -2070,7 +2070,7 @@
     <t>Codes for the types of action perfomer.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/provenance-agent-type</t>
+    <t>http://hl7.org/fhir/ValueSet/provenance-agent-type|4.0.1</t>
   </si>
   <si>
     <t>Contract.term.action.performerRole</t>
@@ -2085,13 +2085,13 @@
     <t>Codes for the role of the action performer.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/provenance-agent-role</t>
+    <t>http://hl7.org/fhir/ValueSet/provenance-agent-role|4.0.1</t>
   </si>
   <si>
     <t>Contract.term.action.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(RelatedPerson|Patient|Practitioner|PractitionerRole|CareTeam|Device|Substance|Organization|Location)
+    <t xml:space="preserve">Reference(RelatedPerson|4.0.1|Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|CareTeam|4.0.1|Device|4.0.1|Substance|4.0.1|Organization|4.0.1|Location|4.0.1)
 </t>
   </si>
   <si>
@@ -2119,7 +2119,7 @@
     <t>Contract.term.action.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport|DocumentReference|Questionnaire|QuestionnaireResponse)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1|DocumentReference|4.0.1|Questionnaire|4.0.1|QuestionnaireResponse|4.0.1)
 </t>
   </si>
   <si>
@@ -2184,7 +2184,7 @@
     <t>Contract.relevantHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
@@ -2231,7 +2231,7 @@
     <t>List of parties who may be signing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contract-signer-type</t>
+    <t>http://hl7.org/fhir/ValueSet/contract-signer-type|4.0.1</t>
   </si>
   <si>
     <t>RoleClass, RoleCode, ParticipationType, ParticipationFunction class codes.</t>
@@ -2300,7 +2300,7 @@
   </si>
   <si>
     <t>Attachment
-Reference(Composition|DocumentReference|QuestionnaireResponse)</t>
+Reference(Composition|4.0.1|DocumentReference|4.0.1|QuestionnaireResponse|4.0.1)</t>
   </si>
   <si>
     <t>Easily comprehended representation of this Contract</t>
@@ -2364,7 +2364,7 @@
   </si>
   <si>
     <t>Attachment
-Reference(DocumentReference)</t>
+Reference(DocumentReference|4.0.1)</t>
   </si>
   <si>
     <t>Computable Contract Rules</t>
@@ -2394,7 +2394,7 @@
   </si>
   <si>
     <t>Attachment
-Reference(Composition|DocumentReference|QuestionnaireResponse|Contract)</t>
+Reference(Composition|4.0.1|DocumentReference|4.0.1|QuestionnaireResponse|4.0.1|Contract|4.0.1)</t>
   </si>
   <si>
     <t>Binding Contract</t>
@@ -2727,7 +2727,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="88.15234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="129.4765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2742,7 +2742,7 @@
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="106.19921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.47265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.1015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-SpaceInsuranceContract.xlsx
+++ b/docs/StructureDefinition-SpaceInsuranceContract.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T11:43:35-07:00</t>
+    <t>2025-12-29T13:16:13-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceInsuranceContract.xlsx
+++ b/docs/StructureDefinition-SpaceInsuranceContract.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T13:16:13-07:00</t>
+    <t>2025-12-29T20:17:52-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceInsuranceContract.xlsx
+++ b/docs/StructureDefinition-SpaceInsuranceContract.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T20:17:52-07:00</t>
+    <t>2025-12-29T22:23:37-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceInsuranceContract.xlsx
+++ b/docs/StructureDefinition-SpaceInsuranceContract.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T22:23:37-07:00</t>
+    <t>2025-12-29T23:18:22-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceInsuranceContract.xlsx
+++ b/docs/StructureDefinition-SpaceInsuranceContract.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T23:18:22-07:00</t>
+    <t>2025-12-30T00:07:25-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SpaceInsuranceContract.xlsx
+++ b/docs/StructureDefinition-SpaceInsuranceContract.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-30T13:15:27-07:00</t>
+    <t>2025-12-30T19:11:20-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
